--- a/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Higher spending on defense</t>
@@ -407,208 +404,175 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.285714285714286</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.117647058823529</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.3125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.352941176470588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="C4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.352941176470588</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>0.333333333333333</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.235294117647059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.666666666666667</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="E6" t="n">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.176470588235294</v>
+        <v>0.444444444444444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0714285714285714</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0588235294117647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.166666666666667</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.117647058823529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.25</v>
-      </c>
       <c r="E10" t="n">
-        <v>0.142857142857143</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.705882352941177</v>
+        <v>0.444444444444444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.333333333333333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.235294117647059</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Higher spending on defense</t>
@@ -404,176 +407,189 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.142857142857143</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0625</v>
+        <v>0.172043010752688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.222222222222222</v>
+        <v>0.12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.333333333333333</v>
-      </c>
+        <v>0.335365853658537</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.214285714285714</v>
+        <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3125</v>
+        <v>0.505376344086022</v>
       </c>
       <c r="D3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.48</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
+        <v>0.402439024390244</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.375</v>
+        <v>0.408602150537634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.68</v>
       </c>
       <c r="E4" t="n">
-        <v>0.666666666666667</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.214285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.25</v>
+        <v>0.193548387096774</v>
       </c>
       <c r="D5" t="n">
-        <v>0.333333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="E5" t="n">
-        <v>0.333333333333333</v>
-      </c>
+        <v>0.201219512195122</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.214285714285714</v>
+        <v>0.325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4375</v>
+        <v>0.462365591397849</v>
       </c>
       <c r="D6" t="n">
-        <v>0.555555555555556</v>
+        <v>0.52</v>
       </c>
       <c r="E6" t="n">
-        <v>0.444444444444444</v>
-      </c>
+        <v>0.414634146341463</v>
+      </c>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.021505376344086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.222222222222222</v>
+        <v>0.06</v>
       </c>
       <c r="E7" t="n">
-        <v>0.111111111111111</v>
-      </c>
+        <v>0.0914634146341463</v>
+      </c>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.142857142857143</v>
+        <v>0.075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.125</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111111111111111</v>
+        <v>0.02</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
+        <v>0.00609756097560976</v>
+      </c>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.142857142857143</v>
+        <v>0.1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="D9" t="n">
-        <v>0.444444444444444</v>
+        <v>0.1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0731707317073171</v>
+      </c>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5</v>
+        <v>0.325</v>
       </c>
       <c r="C10" t="n">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>0.333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>0.444444444444444</v>
-      </c>
+        <v>0.268292682926829</v>
+      </c>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1875</v>
+        <v>0.139784946236559</v>
       </c>
       <c r="D11" t="n">
-        <v>0.222222222222222</v>
+        <v>0.36</v>
       </c>
       <c r="E11" t="n">
-        <v>0.333333333333333</v>
-      </c>
+        <v>0.298780487804878</v>
+      </c>
+      <c r="F11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Higher spending on defense</t>
@@ -410,186 +413,219 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.172043010752688</v>
+        <v>0.232852812492888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.0703720835633545</v>
       </c>
       <c r="E2" t="n">
-        <v>0.335365853658537</v>
-      </c>
-      <c r="F2"/>
+        <v>0.19103358591337</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0864154550063105</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.346225883447029</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.505376344086022</v>
+        <v>0.421027411130836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48</v>
+        <v>0.192438039978791</v>
       </c>
       <c r="E3" t="n">
-        <v>0.402439024390244</v>
-      </c>
-      <c r="F3"/>
+        <v>0.50929050819007</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.453476840088175</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.347017985309861</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4"/>
       <c r="C4" t="n">
-        <v>0.408602150537634</v>
+        <v>0.584060073110359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>0.29923105648981</v>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F4"/>
+        <v>0.380541823806116</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.828021812472718</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.763027597414834</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
-        <v>0.193548387096774</v>
+        <v>0.201321625744182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>0.0770368398640632</v>
       </c>
       <c r="E5" t="n">
-        <v>0.201219512195122</v>
-      </c>
-      <c r="F5"/>
+        <v>0.184731198215538</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.464296115464696</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.202023511725213</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.325</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6"/>
       <c r="C6" t="n">
-        <v>0.462365591397849</v>
+        <v>0.433955636169601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52</v>
+        <v>0.295106957272184</v>
       </c>
       <c r="E6" t="n">
-        <v>0.414634146341463</v>
-      </c>
-      <c r="F6"/>
+        <v>0.469050181283918</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.596774129704506</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.476255853837917</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.05</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7"/>
       <c r="C7" t="n">
-        <v>0.021505376344086</v>
+        <v>0.0641379213437737</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.048580709896928</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0914634146341463</v>
-      </c>
-      <c r="F7"/>
+        <v>0.0222872096292707</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0661906842095095</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0891768244262558</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.075</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B8"/>
       <c r="C8" t="n">
-        <v>0.032258064516129</v>
+        <v>0.0192126417668598</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02</v>
+        <v>0.0664219283441883</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00609756097560976</v>
-      </c>
-      <c r="F8"/>
+        <v>0.0152208017210763</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00638034647821937</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0128195674620216</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B9"/>
       <c r="C9" t="n">
-        <v>0.032258064516129</v>
+        <v>0.0648513081694039</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1</v>
+        <v>0.0804529679976766</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0731707317073171</v>
-      </c>
-      <c r="F9"/>
+        <v>0.0169876142764854</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0919936494439085</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0624308242027936</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.325</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B10"/>
       <c r="C10" t="n">
-        <v>0.333333333333333</v>
+        <v>0.279642357030029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3</v>
+        <v>0.27255180933821</v>
       </c>
       <c r="E10" t="n">
-        <v>0.268292682926829</v>
-      </c>
-      <c r="F10"/>
+        <v>0.303783217911886</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.234353562296299</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.277296378898835</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B11"/>
       <c r="C11" t="n">
-        <v>0.139784946236559</v>
+        <v>0.244511773459286</v>
       </c>
       <c r="D11" t="n">
-        <v>0.36</v>
+        <v>0.256019895117604</v>
       </c>
       <c r="E11" t="n">
-        <v>0.298780487804878</v>
-      </c>
-      <c r="F11"/>
+        <v>0.137807941323195</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.271335789343306</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.235718642255417</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
@@ -421,210 +421,230 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.232852812492888</v>
+        <v>0.225617193221179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0703720835633545</v>
+        <v>0.113113456490054</v>
       </c>
       <c r="E2" t="n">
-        <v>0.19103358591337</v>
+        <v>0.206294903604383</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0864154550063105</v>
+        <v>0.0828003160891339</v>
       </c>
       <c r="G2" t="n">
-        <v>0.346225883447029</v>
+        <v>0.307698728349817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.421027411130836</v>
+        <v>0.406739772718744</v>
       </c>
       <c r="D3" t="n">
-        <v>0.192438039978791</v>
+        <v>0.220605651794805</v>
       </c>
       <c r="E3" t="n">
-        <v>0.50929050819007</v>
+        <v>0.51347966367118</v>
       </c>
       <c r="F3" t="n">
-        <v>0.453476840088175</v>
+        <v>0.445871481959903</v>
       </c>
       <c r="G3" t="n">
-        <v>0.347017985309861</v>
+        <v>0.351366887637951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.584060073110359</v>
+        <v>0.565405852254364</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29923105648981</v>
+        <v>0.305330526667541</v>
       </c>
       <c r="E4" t="n">
-        <v>0.380541823806116</v>
+        <v>0.415603337619354</v>
       </c>
       <c r="F4" t="n">
-        <v>0.828021812472718</v>
+        <v>0.814031967773058</v>
       </c>
       <c r="G4" t="n">
-        <v>0.763027597414834</v>
+        <v>0.695244444895108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.201321625744182</v>
+        <v>0.202306409771023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0770368398640632</v>
+        <v>0.0705563069907815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.184731198215538</v>
+        <v>0.186599998372372</v>
       </c>
       <c r="F5" t="n">
-        <v>0.464296115464696</v>
+        <v>0.477299723929327</v>
       </c>
       <c r="G5" t="n">
-        <v>0.202023511725213</v>
+        <v>0.199383492381218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C6" t="n">
-        <v>0.433955636169601</v>
+        <v>0.439418051641728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.295106957272184</v>
+        <v>0.311156290775865</v>
       </c>
       <c r="E6" t="n">
-        <v>0.469050181283918</v>
+        <v>0.472576871330228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.596774129704506</v>
+        <v>0.573158779188859</v>
       </c>
       <c r="G6" t="n">
-        <v>0.476255853837917</v>
+        <v>0.427201668990217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.0641379213437737</v>
+        <v>0.057414377352125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.048580709896928</v>
+        <v>0.0632000290531784</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0222872096292707</v>
+        <v>0.03693455709849</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0661906842095095</v>
+        <v>0.0599590791637149</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0891768244262558</v>
+        <v>0.0796358639291279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.0192126417668598</v>
+        <v>0.0206611983267168</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0664219283441883</v>
+        <v>0.0466798031352089</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0152208017210763</v>
+        <v>0.0233929876267965</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00638034647821937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0128195674620216</v>
+        <v>0.0154349591097172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C9" t="n">
-        <v>0.0648513081694039</v>
+        <v>0.0576821095860163</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0804529679976766</v>
+        <v>0.0987557014905325</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0169876142764854</v>
+        <v>0.0390834806189398</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0919936494439085</v>
+        <v>0.0907508433439431</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0624308242027936</v>
+        <v>0.0584457449295822</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C10" t="n">
-        <v>0.279642357030029</v>
+        <v>0.284772433183273</v>
       </c>
       <c r="D10" t="n">
-        <v>0.27255180933821</v>
+        <v>0.25639832003672</v>
       </c>
       <c r="E10" t="n">
-        <v>0.303783217911886</v>
+        <v>0.272756437760513</v>
       </c>
       <c r="F10" t="n">
-        <v>0.234353562296299</v>
+        <v>0.218013333108486</v>
       </c>
       <c r="G10" t="n">
-        <v>0.277296378898835</v>
+        <v>0.302705211778986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C11" t="n">
-        <v>0.244511773459286</v>
+        <v>0.227416810903897</v>
       </c>
       <c r="D11" t="n">
-        <v>0.256019895117604</v>
+        <v>0.212344230365132</v>
       </c>
       <c r="E11" t="n">
-        <v>0.137807941323195</v>
+        <v>0.131773094318054</v>
       </c>
       <c r="F11" t="n">
-        <v>0.271335789343306</v>
+        <v>0.266681900557911</v>
       </c>
       <c r="G11" t="n">
-        <v>0.235718642255417</v>
+        <v>0.213076070207378</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_reduce_positive.xlsx
@@ -421,230 +421,230 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
+      <c r="B2" t="n">
+        <v>0.191728838192998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.225617193221179</v>
+        <v>0.229324874567788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113113456490054</v>
+        <v>0.11300584357649</v>
       </c>
       <c r="E2" t="n">
-        <v>0.206294903604383</v>
+        <v>0.206330959813709</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0828003160891339</v>
+        <v>0.167309498714742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.307698728349817</v>
+        <v>0.307674580500946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
+      <c r="B3" t="n">
+        <v>0.231706336600402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.406739772718744</v>
+        <v>0.41417617106433</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220605651794805</v>
+        <v>0.220784838182417</v>
       </c>
       <c r="E3" t="n">
-        <v>0.51347966367118</v>
+        <v>0.513475464015736</v>
       </c>
       <c r="F3" t="n">
-        <v>0.445871481959903</v>
+        <v>0.571894396517594</v>
       </c>
       <c r="G3" t="n">
-        <v>0.351366887637951</v>
+        <v>0.35140046831257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
+      <c r="B4" t="n">
+        <v>0.402468405569239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.565405852254364</v>
+        <v>0.574170908843396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.305330526667541</v>
+        <v>0.305425170457263</v>
       </c>
       <c r="E4" t="n">
-        <v>0.415603337619354</v>
+        <v>0.41557178878899</v>
       </c>
       <c r="F4" t="n">
-        <v>0.814031967773058</v>
+        <v>0.796388832912084</v>
       </c>
       <c r="G4" t="n">
-        <v>0.695244444895108</v>
+        <v>0.695274656120051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
+      <c r="B5" t="n">
+        <v>0.134556611689982</v>
       </c>
       <c r="C5" t="n">
-        <v>0.202306409771023</v>
+        <v>0.20343987578164</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0705563069907815</v>
+        <v>0.0705269255081572</v>
       </c>
       <c r="E5" t="n">
-        <v>0.186599998372372</v>
+        <v>0.186563199887216</v>
       </c>
       <c r="F5" t="n">
-        <v>0.477299723929327</v>
+        <v>0.388064533855124</v>
       </c>
       <c r="G5" t="n">
-        <v>0.199383492381218</v>
+        <v>0.199362467787575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
+      <c r="B6" t="n">
+        <v>0.29524188513754</v>
       </c>
       <c r="C6" t="n">
-        <v>0.439418051641728</v>
+        <v>0.446773167569566</v>
       </c>
       <c r="D6" t="n">
-        <v>0.311156290775865</v>
+        <v>0.311086860759121</v>
       </c>
       <c r="E6" t="n">
-        <v>0.472576871330228</v>
+        <v>0.472594985320846</v>
       </c>
       <c r="F6" t="n">
-        <v>0.573158779188859</v>
+        <v>0.581676125201836</v>
       </c>
       <c r="G6" t="n">
-        <v>0.427201668990217</v>
+        <v>0.427235329422417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
+      <c r="B7" t="n">
+        <v>0.0610463610142554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.057414377352125</v>
+        <v>0.0594728439227492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0632000290531784</v>
+        <v>0.063174518825818</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03693455709849</v>
+        <v>0.0369192488184508</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0599590791637149</v>
+        <v>0.0852489584413553</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0796358639291279</v>
+        <v>0.0796247615558044</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
+      <c r="B8" t="n">
+        <v>0.0453460513422276</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0206611983267168</v>
+        <v>0.0203454573183426</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0466798031352089</v>
+        <v>0.0466966663361878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0233929876267965</v>
+        <v>0.0233919991235881</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0154349591097172</v>
+        <v>0.0154364982095428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
+      <c r="B9" t="n">
+        <v>0.117887591889866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0576821095860163</v>
+        <v>0.059926720944195</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0987557014905325</v>
+        <v>0.0987128166040601</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0390834806189398</v>
+        <v>0.0391059040223957</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0907508433439431</v>
+        <v>0.0792803577046401</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0584457449295822</v>
+        <v>0.0584446422729116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
+      <c r="B10" t="n">
+        <v>0.48069959497809</v>
       </c>
       <c r="C10" t="n">
-        <v>0.284772433183273</v>
+        <v>0.291455797569775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25639832003672</v>
+        <v>0.256387942590256</v>
       </c>
       <c r="E10" t="n">
-        <v>0.272756437760513</v>
+        <v>0.272740260327074</v>
       </c>
       <c r="F10" t="n">
-        <v>0.218013333108486</v>
+        <v>0.365404066943881</v>
       </c>
       <c r="G10" t="n">
-        <v>0.302705211778986</v>
+        <v>0.30269090876194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
+      <c r="B11" t="n">
+        <v>0.321082401095069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.227416810903897</v>
+        <v>0.236091837620962</v>
       </c>
       <c r="D11" t="n">
-        <v>0.212344230365132</v>
+        <v>0.21254761806041</v>
       </c>
       <c r="E11" t="n">
-        <v>0.131773094318054</v>
+        <v>0.131778995675002</v>
       </c>
       <c r="F11" t="n">
-        <v>0.266681900557911</v>
+        <v>0.407517716017418</v>
       </c>
       <c r="G11" t="n">
-        <v>0.213076070207378</v>
+        <v>0.213062119377311</v>
       </c>
     </row>
   </sheetData>
